--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnfsf13</t>
   </si>
   <si>
     <t>Fas</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.634123166293367</v>
+        <v>0.637903</v>
       </c>
       <c r="H2">
-        <v>0.634123166293367</v>
+        <v>1.913709</v>
       </c>
       <c r="I2">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714845</v>
       </c>
       <c r="J2">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714844</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.3515708015426</v>
+        <v>18.11506266666667</v>
       </c>
       <c r="N2">
-        <v>17.3515708015426</v>
+        <v>54.345188</v>
       </c>
       <c r="O2">
-        <v>0.5505336160768758</v>
+        <v>0.5475965948184532</v>
       </c>
       <c r="P2">
-        <v>0.5505336160768758</v>
+        <v>0.5475965948184532</v>
       </c>
       <c r="Q2">
-        <v>11.00303301683773</v>
+        <v>11.55565282025467</v>
       </c>
       <c r="R2">
-        <v>11.00303301683773</v>
+        <v>104.000875382292</v>
       </c>
       <c r="S2">
-        <v>0.09546816056200698</v>
+        <v>0.06730034037238257</v>
       </c>
       <c r="T2">
-        <v>0.09546816056200698</v>
+        <v>0.06730034037238256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.634123166293367</v>
+        <v>0.637903</v>
       </c>
       <c r="H3">
-        <v>0.634123166293367</v>
+        <v>1.913709</v>
       </c>
       <c r="I3">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714845</v>
       </c>
       <c r="J3">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714844</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.52537235595614</v>
+        <v>8.621912666666665</v>
       </c>
       <c r="N3">
-        <v>8.52537235595614</v>
+        <v>25.865738</v>
       </c>
       <c r="O3">
-        <v>0.2704944771403119</v>
+        <v>0.2606300681353106</v>
       </c>
       <c r="P3">
-        <v>0.2704944771403119</v>
+        <v>0.2606300681353106</v>
       </c>
       <c r="Q3">
-        <v>5.406136112188849</v>
+        <v>5.499943955804666</v>
       </c>
       <c r="R3">
-        <v>5.406136112188849</v>
+        <v>49.49949560224199</v>
       </c>
       <c r="S3">
-        <v>0.04690650928600416</v>
+        <v>0.03203177752155112</v>
       </c>
       <c r="T3">
-        <v>0.04690650928600416</v>
+        <v>0.03203177752155111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.634123166293367</v>
+        <v>0.637903</v>
       </c>
       <c r="H4">
-        <v>0.634123166293367</v>
+        <v>1.913709</v>
       </c>
       <c r="I4">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714845</v>
       </c>
       <c r="J4">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714844</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.88344134266239</v>
+        <v>3.165745</v>
       </c>
       <c r="N4">
-        <v>2.88344134266239</v>
+        <v>9.497235</v>
       </c>
       <c r="O4">
-        <v>0.09148632174444751</v>
+        <v>0.09569667044284827</v>
       </c>
       <c r="P4">
-        <v>0.09148632174444751</v>
+        <v>0.09569667044284827</v>
       </c>
       <c r="Q4">
-        <v>1.828456954030272</v>
+        <v>2.019438232735</v>
       </c>
       <c r="R4">
-        <v>1.828456954030272</v>
+        <v>18.174944094615</v>
       </c>
       <c r="S4">
-        <v>0.01586466402499705</v>
+        <v>0.01176124642528617</v>
       </c>
       <c r="T4">
-        <v>0.01586466402499705</v>
+        <v>0.01176124642528617</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.634123166293367</v>
+        <v>0.637903</v>
       </c>
       <c r="H5">
-        <v>0.634123166293367</v>
+        <v>1.913709</v>
       </c>
       <c r="I5">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714845</v>
       </c>
       <c r="J5">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714844</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.75734719657081</v>
+        <v>3.178315666666667</v>
       </c>
       <c r="N5">
-        <v>2.75734719657081</v>
+        <v>9.534947000000001</v>
       </c>
       <c r="O5">
-        <v>0.08748558503836487</v>
+        <v>0.09607666660338771</v>
       </c>
       <c r="P5">
-        <v>0.08748558503836487</v>
+        <v>0.09607666660338772</v>
       </c>
       <c r="Q5">
-        <v>1.748497734859621</v>
+        <v>2.027457098713667</v>
       </c>
       <c r="R5">
-        <v>1.748497734859621</v>
+        <v>18.247113888423</v>
       </c>
       <c r="S5">
-        <v>0.0151708953557115</v>
+        <v>0.01180794845226459</v>
       </c>
       <c r="T5">
-        <v>0.0151708953557115</v>
+        <v>0.01180794845226459</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.164862265629508</v>
+        <v>0.170281</v>
       </c>
       <c r="H6">
-        <v>0.164862265629508</v>
+        <v>0.510843</v>
       </c>
       <c r="I6">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="J6">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.3515708015426</v>
+        <v>18.11506266666667</v>
       </c>
       <c r="N6">
-        <v>17.3515708015426</v>
+        <v>54.345188</v>
       </c>
       <c r="O6">
-        <v>0.5505336160768758</v>
+        <v>0.5475965948184532</v>
       </c>
       <c r="P6">
-        <v>0.5505336160768758</v>
+        <v>0.5475965948184532</v>
       </c>
       <c r="Q6">
-        <v>2.860619274573131</v>
+        <v>3.084650985942667</v>
       </c>
       <c r="R6">
-        <v>2.860619274573131</v>
+        <v>27.761858873484</v>
       </c>
       <c r="S6">
-        <v>0.0248202527242991</v>
+        <v>0.01796506562745382</v>
       </c>
       <c r="T6">
-        <v>0.0248202527242991</v>
+        <v>0.01796506562745382</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.164862265629508</v>
+        <v>0.170281</v>
       </c>
       <c r="H7">
-        <v>0.164862265629508</v>
+        <v>0.510843</v>
       </c>
       <c r="I7">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="J7">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.52537235595614</v>
+        <v>8.621912666666665</v>
       </c>
       <c r="N7">
-        <v>8.52537235595614</v>
+        <v>25.865738</v>
       </c>
       <c r="O7">
-        <v>0.2704944771403119</v>
+        <v>0.2606300681353106</v>
       </c>
       <c r="P7">
-        <v>0.2704944771403119</v>
+        <v>0.2606300681353106</v>
       </c>
       <c r="Q7">
-        <v>1.405512201938106</v>
+        <v>1.468147910792666</v>
       </c>
       <c r="R7">
-        <v>1.405512201938106</v>
+        <v>13.213331197134</v>
       </c>
       <c r="S7">
-        <v>0.01219497063774611</v>
+        <v>0.008550521173512659</v>
       </c>
       <c r="T7">
-        <v>0.01219497063774611</v>
+        <v>0.008550521173512659</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.164862265629508</v>
+        <v>0.170281</v>
       </c>
       <c r="H8">
-        <v>0.164862265629508</v>
+        <v>0.510843</v>
       </c>
       <c r="I8">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="J8">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.88344134266239</v>
+        <v>3.165745</v>
       </c>
       <c r="N8">
-        <v>2.88344134266239</v>
+        <v>9.497235</v>
       </c>
       <c r="O8">
-        <v>0.09148632174444751</v>
+        <v>0.09569667044284827</v>
       </c>
       <c r="P8">
-        <v>0.09148632174444751</v>
+        <v>0.09569667044284827</v>
       </c>
       <c r="Q8">
-        <v>0.4753706725611122</v>
+        <v>0.5390662243450001</v>
       </c>
       <c r="R8">
-        <v>0.4753706725611122</v>
+        <v>4.851596019105</v>
       </c>
       <c r="S8">
-        <v>0.004124568528067227</v>
+        <v>0.003139531876388971</v>
       </c>
       <c r="T8">
-        <v>0.004124568528067227</v>
+        <v>0.003139531876388971</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.164862265629508</v>
+        <v>0.170281</v>
       </c>
       <c r="H9">
-        <v>0.164862265629508</v>
+        <v>0.510843</v>
       </c>
       <c r="I9">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="J9">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.75734719657081</v>
+        <v>3.178315666666667</v>
       </c>
       <c r="N9">
-        <v>2.75734719657081</v>
+        <v>9.534947000000001</v>
       </c>
       <c r="O9">
-        <v>0.08748558503836487</v>
+        <v>0.09607666660338771</v>
       </c>
       <c r="P9">
-        <v>0.08748558503836487</v>
+        <v>0.09607666660338772</v>
       </c>
       <c r="Q9">
-        <v>0.4545825059538361</v>
+        <v>0.5412067700356668</v>
       </c>
       <c r="R9">
-        <v>0.4545825059538361</v>
+        <v>4.870860930321001</v>
       </c>
       <c r="S9">
-        <v>0.003944199349458368</v>
+        <v>0.00315199845493761</v>
       </c>
       <c r="T9">
-        <v>0.003944199349458368</v>
+        <v>0.003151998454937611</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.85779519234462</v>
+        <v>3.407124666666667</v>
       </c>
       <c r="H10">
-        <v>2.85779519234462</v>
+        <v>10.221374</v>
       </c>
       <c r="I10">
-        <v>0.7815057795317095</v>
+        <v>0.6564322386153376</v>
       </c>
       <c r="J10">
-        <v>0.7815057795317095</v>
+        <v>0.6564322386153377</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.3515708015426</v>
+        <v>18.11506266666667</v>
       </c>
       <c r="N10">
-        <v>17.3515708015426</v>
+        <v>54.345188</v>
       </c>
       <c r="O10">
-        <v>0.5505336160768758</v>
+        <v>0.5475965948184532</v>
       </c>
       <c r="P10">
-        <v>0.5505336160768758</v>
+        <v>0.5475965948184532</v>
       </c>
       <c r="Q10">
-        <v>49.58723561627573</v>
+        <v>61.72027684981245</v>
       </c>
       <c r="R10">
-        <v>49.58723561627573</v>
+        <v>555.482491648312</v>
       </c>
       <c r="S10">
-        <v>0.4302452027905697</v>
+        <v>0.3594600585948132</v>
       </c>
       <c r="T10">
-        <v>0.4302452027905697</v>
+        <v>0.3594600585948133</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.85779519234462</v>
+        <v>3.407124666666667</v>
       </c>
       <c r="H11">
-        <v>2.85779519234462</v>
+        <v>10.221374</v>
       </c>
       <c r="I11">
-        <v>0.7815057795317095</v>
+        <v>0.6564322386153376</v>
       </c>
       <c r="J11">
-        <v>0.7815057795317095</v>
+        <v>0.6564322386153377</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.52537235595614</v>
+        <v>8.621912666666665</v>
       </c>
       <c r="N11">
-        <v>8.52537235595614</v>
+        <v>25.865738</v>
       </c>
       <c r="O11">
-        <v>0.2704944771403119</v>
+        <v>0.2606300681353106</v>
       </c>
       <c r="P11">
-        <v>0.2704944771403119</v>
+        <v>0.2606300681353106</v>
       </c>
       <c r="Q11">
-        <v>24.36376813179918</v>
+        <v>29.37593132044577</v>
       </c>
       <c r="R11">
-        <v>24.36376813179918</v>
+        <v>264.383381884012</v>
       </c>
       <c r="S11">
-        <v>0.2113929972165616</v>
+        <v>0.1710859790765299</v>
       </c>
       <c r="T11">
-        <v>0.2113929972165616</v>
+        <v>0.17108597907653</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.85779519234462</v>
+        <v>3.407124666666667</v>
       </c>
       <c r="H12">
-        <v>2.85779519234462</v>
+        <v>10.221374</v>
       </c>
       <c r="I12">
-        <v>0.7815057795317095</v>
+        <v>0.6564322386153376</v>
       </c>
       <c r="J12">
-        <v>0.7815057795317095</v>
+        <v>0.6564322386153377</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.88344134266239</v>
+        <v>3.165745</v>
       </c>
       <c r="N12">
-        <v>2.88344134266239</v>
+        <v>9.497235</v>
       </c>
       <c r="O12">
-        <v>0.09148632174444751</v>
+        <v>0.09569667044284827</v>
       </c>
       <c r="P12">
-        <v>0.09148632174444751</v>
+        <v>0.09569667044284827</v>
       </c>
       <c r="Q12">
-        <v>8.240284806468294</v>
+        <v>10.78608787787667</v>
       </c>
       <c r="R12">
-        <v>8.240284806468294</v>
+        <v>97.07479090089001</v>
       </c>
       <c r="S12">
-        <v>0.07149708919138324</v>
+        <v>0.06281837960683311</v>
       </c>
       <c r="T12">
-        <v>0.07149708919138324</v>
+        <v>0.06281837960683312</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.407124666666667</v>
+      </c>
+      <c r="H13">
+        <v>10.221374</v>
+      </c>
+      <c r="I13">
+        <v>0.6564322386153376</v>
+      </c>
+      <c r="J13">
+        <v>0.6564322386153377</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.178315666666667</v>
+      </c>
+      <c r="N13">
+        <v>9.534947000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.09607666660338771</v>
+      </c>
+      <c r="P13">
+        <v>0.09607666660338772</v>
+      </c>
+      <c r="Q13">
+        <v>10.82891770635311</v>
+      </c>
+      <c r="R13">
+        <v>97.46025935717802</v>
+      </c>
+      <c r="S13">
+        <v>0.06306782133716124</v>
+      </c>
+      <c r="T13">
+        <v>0.06306782133716125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.85779519234462</v>
-      </c>
-      <c r="H13">
-        <v>2.85779519234462</v>
-      </c>
-      <c r="I13">
-        <v>0.7815057795317095</v>
-      </c>
-      <c r="J13">
-        <v>0.7815057795317095</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.75734719657081</v>
-      </c>
-      <c r="N13">
-        <v>2.75734719657081</v>
-      </c>
-      <c r="O13">
-        <v>0.08748558503836487</v>
-      </c>
-      <c r="P13">
-        <v>0.08748558503836487</v>
-      </c>
-      <c r="Q13">
-        <v>7.879933561984977</v>
-      </c>
-      <c r="R13">
-        <v>7.879933561984977</v>
-      </c>
-      <c r="S13">
-        <v>0.06837049033319501</v>
-      </c>
-      <c r="T13">
-        <v>0.06837049033319501</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.975059</v>
+      </c>
+      <c r="H14">
+        <v>2.925177</v>
+      </c>
+      <c r="I14">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="J14">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>18.11506266666667</v>
+      </c>
+      <c r="N14">
+        <v>54.345188</v>
+      </c>
+      <c r="O14">
+        <v>0.5475965948184532</v>
+      </c>
+      <c r="P14">
+        <v>0.5475965948184532</v>
+      </c>
+      <c r="Q14">
+        <v>17.66325488869733</v>
+      </c>
+      <c r="R14">
+        <v>158.969293998276</v>
+      </c>
+      <c r="S14">
+        <v>0.1028711302238036</v>
+      </c>
+      <c r="T14">
+        <v>0.1028711302238036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.975059</v>
+      </c>
+      <c r="H15">
+        <v>2.925177</v>
+      </c>
+      <c r="I15">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="J15">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.621912666666665</v>
+      </c>
+      <c r="N15">
+        <v>25.865738</v>
+      </c>
+      <c r="O15">
+        <v>0.2606300681353106</v>
+      </c>
+      <c r="P15">
+        <v>0.2606300681353106</v>
+      </c>
+      <c r="Q15">
+        <v>8.406873542847332</v>
+      </c>
+      <c r="R15">
+        <v>75.661861885626</v>
+      </c>
+      <c r="S15">
+        <v>0.04896179036371691</v>
+      </c>
+      <c r="T15">
+        <v>0.04896179036371692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.975059</v>
+      </c>
+      <c r="H16">
+        <v>2.925177</v>
+      </c>
+      <c r="I16">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="J16">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.165745</v>
+      </c>
+      <c r="N16">
+        <v>9.497235</v>
+      </c>
+      <c r="O16">
+        <v>0.09569667044284827</v>
+      </c>
+      <c r="P16">
+        <v>0.09569667044284827</v>
+      </c>
+      <c r="Q16">
+        <v>3.086788153955</v>
+      </c>
+      <c r="R16">
+        <v>27.781093385595</v>
+      </c>
+      <c r="S16">
+        <v>0.01797751253434002</v>
+      </c>
+      <c r="T16">
+        <v>0.01797751253434002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.975059</v>
+      </c>
+      <c r="H17">
+        <v>2.925177</v>
+      </c>
+      <c r="I17">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="J17">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.178315666666667</v>
+      </c>
+      <c r="N17">
+        <v>9.534947000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.09607666660338771</v>
+      </c>
+      <c r="P17">
+        <v>0.09607666660338772</v>
+      </c>
+      <c r="Q17">
+        <v>3.099045295624333</v>
+      </c>
+      <c r="R17">
+        <v>27.891407660619</v>
+      </c>
+      <c r="S17">
+        <v>0.01804889835902427</v>
+      </c>
+      <c r="T17">
+        <v>0.01804889835902427</v>
       </c>
     </row>
   </sheetData>
